--- a/_3ПКС-320/3ПКС-320.xlsx
+++ b/_3ПКС-320/3ПКС-320.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0\3ПКС-320\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C538CE-9DD7-4672-B02D-740FFEFD6BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DA49A8-D9D1-4D8C-AB7D-E07C8ADEB8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Алексеев Дмитрий</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Лаб_9</t>
+  </si>
+  <si>
+    <t>Лаб_10</t>
+  </si>
+  <si>
+    <t>Лаб_11</t>
+  </si>
+  <si>
+    <t>Лаб_12</t>
   </si>
 </sst>
 </file>
@@ -489,7 +498,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -538,9 +547,15 @@
       <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
@@ -638,7 +653,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
@@ -651,7 +668,9 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
